--- a/KV-Diagramm.xlsx
+++ b/KV-Diagramm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26619"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/04_Wuerfel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30e098e8b6e456a9/Documenti/School/FTKL/04_Wuerfel/ftkl-digital-dice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="8_{07F43F5E-B16E-4487-9F82-27916844C342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66AECD4-F82E-4631-9950-44CEA70CA2EB}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="8_{07F43F5E-B16E-4487-9F82-27916844C342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F616A55-62CA-45E7-861B-3EA065A0D1D4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{CB6563AA-25B3-4D68-8925-E211F177B0B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Dez.</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>1/4</t>
   </si>
 </sst>
 </file>
@@ -96,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -337,11 +352,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +457,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DF09CD-BC61-4DEE-9A2B-60DCE149B347}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -736,393 +813,624 @@
     <col min="2" max="16384" width="3.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19">
-        <v>1</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19">
-        <v>2</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="28">
+        <v>2</v>
+      </c>
+      <c r="G1" s="28">
         <v>3</v>
       </c>
-      <c r="N1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="H1" s="28">
+        <v>5</v>
+      </c>
+      <c r="I1" s="28">
+        <v>6</v>
+      </c>
+      <c r="J1" s="28">
+        <v>7</v>
+      </c>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="23">
+        <v>0</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
+        <v>4</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
+        <v>5</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="22">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="22">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
+        <v>6</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="G12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="9">
-        <v>1</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="M12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19">
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="21"/>
+      <c r="B14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19">
+        <v>7</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
         <v>5</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19">
-        <v>6</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="H16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="N16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3" t="s">
+      <c r="M17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="19" t="s">
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>2</v>
       </c>
     </row>
